--- a/evaluation/results/LOF/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/LOF/split_1/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="H2">
-        <v>0.5677501337613697</v>
+        <v>0.7380283574103799</v>
       </c>
       <c r="I2">
         <v>5</v>
